--- a/observations/orbit_plans/mtp095/nomad_mtp095_plan.xlsx
+++ b/observations/orbit_plans/mtp095/nomad_mtp095_plan.xlsx
@@ -61,1596 +61,1599 @@
     <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=53; </t>
   </si>
   <si>
-    <t>6SUBD Nominal #1</t>
+    <t>6SUBD CO2 H2O #13</t>
+  </si>
+  <si>
+    <t>HCL #10</t>
+  </si>
+  <si>
+    <t>2025 JUL 05 18:07:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>H2O 3SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 05 20:05:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #5</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #12</t>
+  </si>
+  <si>
+    <t>2025 JUL 05 22:03:08</t>
+  </si>
+  <si>
+    <t>uvisNightLimb</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 00:01:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; </t>
+  </si>
+  <si>
+    <t>2025 JUL 06 01:59:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #12</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #45</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 03:56:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #29</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O #11</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 05:54:45</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 07:52:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #7</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 09:50:27</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 11:48:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2025 JUL 06 13:46:17</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 15:44:11</t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #3</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #53</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 17:42:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 19:39:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>H2O CO 3SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 21:37:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>Fullscan fast step4 all #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 06 23:35:40</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 01:33:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #34</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 03:31:30</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 05:29:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 07:27:11</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #42</t>
+  </si>
+  <si>
+    <t>6SUBD CO #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 09:25:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 11:22:56</t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #48</t>
+  </si>
+  <si>
+    <t>6SUBD DetLim #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 13:20:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 15:18:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 17:16:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #51</t>
+  </si>
+  <si>
+    <t>2025 JUL 07 19:14:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:PERSEVERANCE; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 21:12:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 07 23:10:11</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 01:08:07</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 03:06:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=60; </t>
+  </si>
+  <si>
+    <t>Fullscan fast step5 all #1</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #28</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 05:03:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
+  </si>
+  <si>
+    <t>2025 JUL 08 07:01:43</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 08:59:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:OLYMPUS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 08 10:57:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #4</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 12:55:19</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #24</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 14:53:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:INSIGHT; </t>
+  </si>
+  <si>
+    <t>Nominal 6SUBD #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 16:51:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>2025 JUL 08 18:48:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>2025 JUL 08 20:46:46</t>
+  </si>
+  <si>
+    <t>6SUBD CO #6</t>
+  </si>
+  <si>
+    <t>2025 JUL 08 22:44:36</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 00:42:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;egressMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #13</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 02:40:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 04:38:20</t>
+  </si>
+  <si>
+    <t>uvisMerged</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 06:36:10</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 08:33:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;mergedMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 10:31:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>irOFF</t>
+  </si>
+  <si>
+    <t>uvisGrazing</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 12:29:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 14:27:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 16:25:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 18:23:20</t>
+  </si>
+  <si>
+    <t>2025 JUL 09 20:21:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUL 09 22:18:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 00:16:49</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 02:14:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 04:12:38</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 06:10:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 08:08:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 10:06:04</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 12:03:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 14:01:48</t>
+  </si>
+  <si>
+    <t>2025 JUL 10 15:59:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 17:57:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 19:55:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;trueNightLimb; &amp;daysideMatch:CERAUNIUS THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 21:53:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 10 23:50:58</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 01:48:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2025 JUL 11 03:46:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 11 05:44:35</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 07:42:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
+  </si>
+  <si>
+    <t>2025 JUL 11 09:40:09</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 11:37:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2025 JUL 11 13:35:50</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 15:33:41</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 17:31:32</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 19:29:20</t>
+  </si>
+  <si>
+    <t>2025 JUL 11 21:27:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2025 JUL 11 23:24:52</t>
+  </si>
+  <si>
+    <t>2025 JUL 12 01:22:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 12 03:20:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 05:18:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 07:16:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 09:13:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 11:11:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 12 13:09:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 15:07:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 17:05:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 19:03:02</t>
+  </si>
+  <si>
+    <t>2025 JUL 12 21:00:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2025 JUL 12 22:58:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 13 00:56:17</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 02:54:08</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 04:51:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2025 JUL 13 06:49:43</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 08:47:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 10:45:08</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 12:42:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2025 JUL 13 14:40:42</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 16:38:29</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 18:36:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2025 JUL 13 20:33:58</t>
+  </si>
+  <si>
+    <t>2025 JUL 13 22:31:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 00:29:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 02:27:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 04:24:57</t>
+  </si>
+  <si>
+    <t>2025 JUL 14 06:22:41</t>
+  </si>
+  <si>
+    <t>2025 JUL 14 08:20:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 10:18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 12:15:42</t>
+  </si>
+  <si>
+    <t>2025 JUL 14 14:13:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 14 16:11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 18:08:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2025 JUL 14 20:06:34</t>
+  </si>
+  <si>
+    <t>2025 JUL 14 22:04:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>Ice H2O 2SUBD #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 00:01:48</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 01:59:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 03:57:14</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 05:54:56</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 07:52:32</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 09:50:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 11:47:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 13:45:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 15:43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 17:40:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 19:38:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=5.0hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 15 21:35:50</t>
+  </si>
+  <si>
+    <t>2025 JUL 15 23:33:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 01:30:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 03:28:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 05:26:12</t>
+  </si>
+  <si>
+    <t>2025 JUL 16 07:23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.6hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 09:21:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.5hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 11:18:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.4hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 13:16:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 15:13:49</t>
+  </si>
+  <si>
+    <t>2025 JUL 16 17:11:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 19:08:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.9hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 21:06:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 16 23:03:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>Surface Ice 6SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUL 17 01:01:20</t>
+  </si>
+  <si>
+    <t>2025 JUL 17 02:58:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 04:56:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=3.1hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 06:53:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 08:51:18</t>
+  </si>
+  <si>
+    <t>2025 JUL 17 10:48:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 12:46:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=2.1hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 14:43:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 16:41:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 18:38:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=1.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 20:36:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=0.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 17 22:33:29</t>
+  </si>
+  <si>
+    <t>2025 JUL 18 00:30:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=23.9hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 02:28:19</t>
+  </si>
+  <si>
+    <t>2025 JUL 18 04:25:48</t>
+  </si>
+  <si>
+    <t>2025 JUL 18 06:23:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.7hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 08:20:42</t>
+  </si>
+  <si>
+    <t>2025 JUL 18 10:18:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=22.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 12:15:35</t>
+  </si>
+  <si>
+    <t>2025 JUL 18 14:13:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=21.5hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 16:10:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=21.2hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 18:07:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=21.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 20:05:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 18 22:02:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.6hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 00:00:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.4hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 01:57:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.3hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 03:55:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.1hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 05:52:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=20.0hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 07:50:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.8hrs; &amp;Angle=80; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 09:47:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.7hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 11:45:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.6hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 13:42:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 19 15:40:24</t>
+  </si>
+  <si>
+    <t>2025 JUL 19 17:37:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.3hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 19:35:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 19 21:33:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 19 23:30:41</t>
+  </si>
+  <si>
+    <t>2025 JUL 20 01:28:16</t>
+  </si>
+  <si>
+    <t>2025 JUL 20 03:25:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=19.0hrs; &amp;Angle=79; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 05:23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 07:20:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 09:18:34</t>
+  </si>
+  <si>
+    <t>2025 JUL 20 11:16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.7hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 13:13:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 15:11:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=78; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 17:08:59</t>
+  </si>
+  <si>
+    <t>2025 JUL 20 19:06:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2025 JUL 20 21:04:16</t>
+  </si>
+  <si>
+    <t>2025 JUL 20 23:02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=77; </t>
+  </si>
+  <si>
+    <t>2025 JUL 21 00:59:42</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 02:57:18</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 04:54:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 06:52:35</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 08:50:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 21 10:48:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>Nominal 3SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 12:45:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 14:43:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=76; </t>
+  </si>
+  <si>
+    <t>2025 JUL 21 16:41:04</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 18:38:43</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 20:36:28</t>
+  </si>
+  <si>
+    <t>2025 JUL 21 22:34:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2025 JUL 22 00:32:03</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 02:29:46</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 04:27:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=75; </t>
+  </si>
+  <si>
+    <t>2025 JUL 22 06:25:08</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 08:22:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>2025 JUL 22 10:20:41</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 12:18:28</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 14:16:13</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 16:13:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=74; </t>
+  </si>
+  <si>
+    <t>H2O 2SUBD 01</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 18:11:38</t>
+  </si>
+  <si>
+    <t>2025 JUL 22 20:09:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2025 JUL 22 22:07:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 00:05:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=73; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 02:02:52</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 04:00:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 05:58:18</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 07:56:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:VERNAL CRATER; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 09:53:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 11:51:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=72; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 13:49:33</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 15:47:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 17:45:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=71; </t>
+  </si>
+  <si>
+    <t>2025 JUL 23 19:42:50</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 21:40:40</t>
+  </si>
+  <si>
+    <t>2025 JUL 23 23:38:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=70; </t>
+  </si>
+  <si>
+    <t>2025 JUL 24 01:36:25</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 03:34:12</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 05:31:56</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 07:29:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 09:27:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=69; </t>
+  </si>
+  <si>
+    <t>2025 JUL 24 11:25:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 13:23:16</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 15:21:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUL 24 17:18:52</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 19:16:38</t>
+  </si>
+  <si>
+    <t>2025 JUL 24 21:14:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=68; </t>
+  </si>
+  <si>
+    <t>2025 JUL 24 23:12:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 01:10:16</t>
+  </si>
+  <si>
+    <t>2025 JUL 25 03:08:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=67; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 05:05:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 07:03:40</t>
+  </si>
+  <si>
+    <t>2025 JUL 25 09:01:31</t>
+  </si>
+  <si>
+    <t>2025 JUL 25 10:59:24</t>
+  </si>
+  <si>
+    <t>2025 JUL 25 12:57:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 14:55:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 16:52:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 18:50:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=66; </t>
+  </si>
+  <si>
+    <t>2025 JUL 25 20:48:33</t>
+  </si>
+  <si>
+    <t>2025 JUL 25 22:46:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=65; </t>
+  </si>
+  <si>
+    <t>2025 JUL 26 00:44:22</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 02:42:15</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 04:40:03</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 06:37:50</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 08:35:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=64; </t>
+  </si>
+  <si>
+    <t>2025 JUL 26 10:33:35</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 12:31:28</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 14:29:21</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 16:27:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 26 18:24:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=63; </t>
+  </si>
+  <si>
+    <t>2025 JUL 26 20:22:49</t>
+  </si>
+  <si>
+    <t>2025 JUL 26 22:20:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>2025 JUL 27 00:18:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 #23</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 02:16:33</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #25</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 04:14:24</t>
+  </si>
+  <si>
+    <t>6SUBD CO2 H2O CO #15</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 06:12:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=62; </t>
+  </si>
+  <si>
+    <t>6SUBD Nominal #54</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 08:10:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:OLYMPUS MONS VOLCANIC CONES E; &amp;ingressMatch:ULYSSES FOSSAE; </t>
   </si>
   <si>
     <t>6SUBD CO2 H2O #14</t>
   </si>
   <si>
-    <t>2025 JUL 05 18:07:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.1hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>H2O 3SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 05 20:05:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>CO2 Fullscan Fast #5</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #7</t>
-  </si>
-  <si>
-    <t>2025 JUL 05 22:03:08</t>
-  </si>
-  <si>
-    <t>uvisNightLimb</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 00:01:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; </t>
-  </si>
-  <si>
-    <t>2025 JUL 06 01:59:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:AEOLIS MENSAE MFF; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #45</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O CO #15</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 03:56:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=8.0hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #48</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #13</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 05:54:45</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 07:52:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=55; </t>
+    <t>2025 JUL 27 10:07:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=61; </t>
+  </si>
+  <si>
+    <t>CO2 Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 12:05:51</t>
+  </si>
+  <si>
+    <t>Surface 3SUBD #3</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 14:03:44</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 16:01:36</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 17:59:26</t>
+  </si>
+  <si>
+    <t>6SUBD Nom CO #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 19:57:15</t>
+  </si>
+  <si>
+    <t>2025 JUL 27 21:55:08</t>
   </si>
   <si>
     <t>Dust H2O 01</t>
   </si>
   <si>
+    <t>2025 JUL 27 23:53:03</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 01:50:59</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 03:48:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=59; </t>
+  </si>
+  <si>
     <t>6SUBD CO2 #19</t>
   </si>
   <si>
-    <t>2025 JUL 06 09:50:27</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 11:48:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.9hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #25</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #28</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 13:46:17</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 15:44:11</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #53</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 17:42:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #6</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 19:39:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2025 JUL 06 21:37:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.8hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>HCL #10</t>
-  </si>
-  <si>
-    <t>2025 JUL 06 23:35:40</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 01:33:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERBERUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>6SUBD Nom CO #1</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 03:31:30</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 05:29:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #11</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 07:27:11</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 09:25:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUL 07 11:22:56</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #29</t>
-  </si>
-  <si>
-    <t>6SUBD Nom CH4 #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 13:20:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 07 15:18:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.7hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2025 JUL 07 17:16:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.6hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #12</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 19:14:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:PERSEVERANCE; &amp;daysideMatch:CERAUNIUS FOSSAE; &amp;daysideMatch:SOUTH THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2025 JUL 07 21:12:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>Fullscan fast step5 all #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 07 23:10:11</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 01:08:07</t>
+    <t>All Fullscan Fast #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 05:46:41</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 07:44:30</t>
   </si>
   <si>
     <t>6SUBD Nominal #52</t>
   </si>
   <si>
-    <t>2025 JUL 08 03:06:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=60; </t>
-  </si>
-  <si>
-    <t>6SUBD DetLim #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 05:03:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:TIANWEN1; </t>
-  </si>
-  <si>
-    <t>2025 JUL 08 07:01:43</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 08:59:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:OLYMPUS MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 08 10:57:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.5hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #42</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 H2O #12</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 12:55:19</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 #23</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 14:53:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:INSIGHT; </t>
-  </si>
-  <si>
-    <t>CO 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 16:51:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=61; </t>
-  </si>
-  <si>
-    <t>2025 JUL 08 18:48:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.4hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2025 JUL 08 20:46:46</t>
-  </si>
-  <si>
-    <t>Fullscan fast step4 all #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 08 22:44:36</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 00:42:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;egressMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 02:40:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.3hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 04:38:20</t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #51</t>
-  </si>
-  <si>
-    <t>uvisMerged</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 06:36:10</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 08:33:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;mergedMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 10:31:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>irOFF</t>
-  </si>
-  <si>
-    <t>uvisGrazing</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 12:29:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.2hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 14:27:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MAWRTH VALLIS-ARAM CHAOS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 16:25:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARGYRE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 18:23:20</t>
-  </si>
-  <si>
-    <t>2025 JUL 09 20:21:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUL 09 22:18:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.1hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 00:16:49</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 02:14:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 04:12:38</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 06:10:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=7.0hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 08:08:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PERSEVERANCE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 10:06:04</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 12:03:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 14:01:48</t>
-  </si>
-  <si>
-    <t>2025 JUL 10 15:59:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.9hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 17:57:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 19:55:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;trueNightLimb; &amp;daysideMatch:CERAUNIUS THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 21:53:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; &amp;daysideMatch:ULYSSES THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 10 23:50:58</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 01:48:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.8hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2025 JUL 11 03:46:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 11 05:44:35</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 07:42:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:UTOPIA; </t>
-  </si>
-  <si>
-    <t>2025 JUL 11 09:40:09</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 11:37:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.7hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2025 JUL 11 13:35:50</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 15:33:41</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 17:31:32</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 19:29:20</t>
-  </si>
-  <si>
-    <t>2025 JUL 11 21:27:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.6hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2025 JUL 11 23:24:52</t>
-  </si>
-  <si>
-    <t>2025 JUL 12 01:22:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 12 03:20:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 05:18:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 07:16:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.5hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 09:13:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 11:11:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 12 13:09:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 15:07:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;possibleOCM; &amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 17:05:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.4hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 19:03:02</t>
-  </si>
-  <si>
-    <t>2025 JUL 12 21:00:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.3hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2025 JUL 12 22:58:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 13 00:56:17</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 02:54:08</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 04:51:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.2hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2025 JUL 13 06:49:43</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 08:47:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 10:45:08</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 12:42:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.1hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2025 JUL 13 14:40:42</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 16:38:29</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 18:36:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2025 JUL 13 20:33:58</t>
-  </si>
-  <si>
-    <t>2025 JUL 13 22:31:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 00:29:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=6.0hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 02:27:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.9hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 04:24:57</t>
-  </si>
-  <si>
-    <t>2025 JUL 14 06:22:41</t>
-  </si>
-  <si>
-    <t>2025 JUL 14 08:20:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 10:18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.8hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 12:15:42</t>
-  </si>
-  <si>
-    <t>2025 JUL 14 14:13:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 14 16:11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.7hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 18:08:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2025 JUL 14 20:06:34</t>
-  </si>
-  <si>
-    <t>2025 JUL 14 22:04:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.6hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>Surface 3SUBD #3</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 00:01:48</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 01:59:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.5hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 03:57:14</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 05:54:56</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 07:52:32</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 09:50:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.3hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 11:47:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.2hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 13:45:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 15:43:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:MERIDIANI SULPHATES; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 17:40:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.1hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 19:38:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=5.0hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 15 21:35:50</t>
-  </si>
-  <si>
-    <t>2025 JUL 15 23:33:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.9hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 01:30:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.8hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 03:28:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.7hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 05:26:12</t>
-  </si>
-  <si>
-    <t>2025 JUL 16 07:23:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.6hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 09:21:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.5hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 11:18:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.4hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 13:16:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=4.3hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 15:13:49</t>
-  </si>
-  <si>
-    <t>2025 JUL 16 17:11:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES BASIN; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 19:08:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.9hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 21:06:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 16 23:03:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 01:01:20</t>
-  </si>
-  <si>
-    <t>2025 JUL 17 02:58:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 04:56:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=3.1hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 06:53:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 08:51:18</t>
-  </si>
-  <si>
-    <t>2025 JUL 17 10:48:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 12:46:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=2.1hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 14:43:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 16:41:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 18:38:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=1.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 20:36:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=0.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 17 22:33:29</t>
-  </si>
-  <si>
-    <t>2025 JUL 18 00:30:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=23.9hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 02:28:19</t>
-  </si>
-  <si>
-    <t>2025 JUL 18 04:25:48</t>
-  </si>
-  <si>
-    <t>2025 JUL 18 06:23:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.7hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 08:20:42</t>
-  </si>
-  <si>
-    <t>2025 JUL 18 10:18:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=22.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 12:15:35</t>
-  </si>
-  <si>
-    <t>2025 JUL 18 14:13:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=21.5hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 16:10:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=21.2hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 18:07:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=21.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 20:05:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 18 22:02:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.6hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 00:00:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.4hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 01:57:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.3hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 03:55:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.1hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 05:52:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=20.0hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 07:50:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.8hrs; &amp;Angle=80; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 09:47:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.7hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 11:45:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.6hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 13:42:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 19 15:40:24</t>
-  </si>
-  <si>
-    <t>2025 JUL 19 17:37:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.3hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>Ice H2O 2SUBD #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 19 19:35:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 19 21:33:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.2hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 19 23:30:41</t>
-  </si>
-  <si>
-    <t>2025 JUL 20 01:28:16</t>
-  </si>
-  <si>
-    <t>2025 JUL 20 03:25:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=19.0hrs; &amp;Angle=79; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 05:23:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.9hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 07:20:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.8hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 09:18:34</t>
-  </si>
-  <si>
-    <t>2025 JUL 20 11:16:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.7hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 13:13:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS THOLUS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 15:11:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.6hrs; &amp;Angle=78; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 17:08:59</t>
-  </si>
-  <si>
-    <t>2025 JUL 20 19:06:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.5hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2025 JUL 20 21:04:16</t>
-  </si>
-  <si>
-    <t>2025 JUL 20 23:02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.4hrs; &amp;Angle=77; </t>
-  </si>
-  <si>
-    <t>2025 JUL 21 00:59:42</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 02:57:18</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 04:54:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 06:52:35</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 08:50:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ACIDALIA MUD VOLCANOES NE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 21 10:48:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.2hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2025 JUL 21 12:45:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 14:43:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.1hrs; &amp;Angle=76; </t>
-  </si>
-  <si>
-    <t>2025 JUL 21 16:41:04</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 18:38:43</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 20:36:28</t>
-  </si>
-  <si>
-    <t>2025 JUL 21 22:34:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=18.0hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2025 JUL 22 00:32:03</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 02:29:46</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 04:27:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.9hrs; &amp;Angle=75; </t>
-  </si>
-  <si>
-    <t>2025 JUL 22 06:25:08</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 08:22:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.8hrs; &amp;Angle=74; </t>
-  </si>
-  <si>
-    <t>2025 JUL 22 10:20:41</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 12:18:28</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 14:16:13</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 16:13:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=74; </t>
+    <t>2025 JUL 28 09:42:24</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 11:40:18</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 13:38:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;daysideMatch:COPRATES RISE; </t>
+  </si>
+  <si>
+    <t>2025 JUL 28 15:36:06</t>
+  </si>
+  <si>
+    <t>6SUBD HCL H20 #2</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 17:33:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
+  </si>
+  <si>
+    <t>2025 JUL 28 19:31:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=58; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 HCl #1</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 21:29:38</t>
+  </si>
+  <si>
+    <t>2025 JUL 28 23:27:33</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 01:25:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=57; </t>
+  </si>
+  <si>
+    <t>2025 JUL 29 03:23:26</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 05:21:17</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 07:19:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2025 JUL 29 09:16:58</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 11:14:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=56; </t>
+  </si>
+  <si>
+    <t>2025 JUL 29 13:12:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;ingressMatch:ELYSIUM CERBERUS PHLEGRA; </t>
+  </si>
+  <si>
+    <t>6SUBD CO2 CO #27</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 15:10:42</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 17:08:35</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 19:06:25</t>
+  </si>
+  <si>
+    <t>2025 JUL 29 21:04:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>2025 JUL 29 23:02:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=55; </t>
+  </si>
+  <si>
+    <t>2025 JUL 30 01:00:06</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 02:58:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=54; </t>
+  </si>
+  <si>
+    <t>2025 JUL 30 04:55:56</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 06:53:45</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 08:51:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>2025 JUL 30 10:49:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=53; </t>
+  </si>
+  <si>
+    <t>2025 JUL 30 12:47:26</t>
+  </si>
+  <si>
+    <t>6SUBD CO #3</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 14:45:20</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 16:43:14</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 18:41:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=52; </t>
   </si>
   <si>
     <t>Ice CO 2SUBD #2</t>
   </si>
   <si>
-    <t>2025 JUL 22 18:11:38</t>
-  </si>
-  <si>
-    <t>2025 JUL 22 20:09:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.7hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2025 JUL 22 22:07:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 00:05:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=73; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 02:02:52</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 04:00:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.6hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 05:58:18</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 07:56:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nomadPhobos; &amp;daysideMatch:VERNAL CRATER; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 09:53:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 11:51:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.5hrs; &amp;Angle=72; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 13:49:33</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 15:47:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:OLYMPICA FOSSAE-JOVIS THOLUS; &amp;daysideMatch:ARSIA MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 17:45:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.4hrs; &amp;Angle=71; </t>
-  </si>
-  <si>
-    <t>2025 JUL 23 19:42:50</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 21:40:40</t>
-  </si>
-  <si>
-    <t>2025 JUL 23 23:38:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.3hrs; &amp;Angle=70; </t>
-  </si>
-  <si>
-    <t>2025 JUL 24 01:36:25</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 03:34:12</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 05:31:56</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 07:29:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 09:27:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.2hrs; &amp;Angle=69; </t>
-  </si>
-  <si>
-    <t>2025 JUL 24 11:25:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 13:23:16</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 15:21:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ASCRAEUS MONS; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUL 24 17:18:52</t>
-  </si>
-  <si>
-    <t>Nominal 6SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 19:16:38</t>
-  </si>
-  <si>
-    <t>2025 JUL 24 21:14:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.1hrs; &amp;Angle=68; </t>
-  </si>
-  <si>
-    <t>2025 JUL 24 23:12:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; &amp;daysideMatch:CURIOSITY; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 01:10:16</t>
-  </si>
-  <si>
-    <t>2025 JUL 25 03:08:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=17.0hrs; &amp;Angle=67; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 05:05:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;cassisSolarCalibration; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 07:03:40</t>
-  </si>
-  <si>
-    <t>2025 JUL 25 09:01:31</t>
-  </si>
-  <si>
-    <t>2025 JUL 25 10:59:24</t>
-  </si>
-  <si>
-    <t>2025 JUL 25 12:57:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EAST THAUMASIA; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 14:55:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CLARITAS RISE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 16:52:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ULYSSES FOSSAE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 18:50:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.9hrs; &amp;Angle=66; </t>
-  </si>
-  <si>
-    <t>2025 JUL 25 20:48:33</t>
-  </si>
-  <si>
-    <t>2025 JUL 25 22:46:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.8hrs; &amp;Angle=65; </t>
-  </si>
-  <si>
-    <t>2025 JUL 26 00:44:22</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 02:42:15</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD 01</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 04:40:03</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 06:37:50</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 08:35:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.7hrs; &amp;Angle=64; </t>
-  </si>
-  <si>
-    <t>2025 JUL 26 10:33:35</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 12:31:28</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 14:29:21</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 16:27:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:CERAUNIUS FOSSAE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 26 18:24:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.6hrs; &amp;Angle=63; </t>
-  </si>
-  <si>
-    <t>2025 JUL 26 20:22:49</t>
-  </si>
-  <si>
-    <t>2025 JUL 26 22:20:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>6SUBD Nominal #54</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 00:18:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:INSIGHT; </t>
-  </si>
-  <si>
-    <t>2025 JUL 27 02:16:33</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 04:14:24</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 06:12:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=62; </t>
-  </si>
-  <si>
-    <t>2025 JUL 27 08:10:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:OLYMPUS MONS VOLCANIC CONES E; &amp;ingressMatch:ULYSSES FOSSAE; </t>
-  </si>
-  <si>
-    <t>6SUBD CO #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 10:07:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.5hrs; &amp;Angle=61; </t>
+    <t>2025 JUL 30 20:38:55</t>
+  </si>
+  <si>
+    <t>2025 JUL 30 22:36:48</t>
+  </si>
+  <si>
+    <t>2025 JUL 31 00:34:45</t>
+  </si>
+  <si>
+    <t>2025 JUL 31 02:32:42</t>
   </si>
   <si>
     <t>6SUBD Nom CO #6</t>
   </si>
   <si>
-    <t>2025 JUL 27 12:05:51</t>
-  </si>
-  <si>
-    <t>Nominal 4SUBD #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 14:03:44</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 16:01:36</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 17:59:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 19:57:15</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 21:55:08</t>
-  </si>
-  <si>
-    <t>6SUBD CH4 H2O #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 27 23:53:03</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 01:50:59</t>
-  </si>
-  <si>
-    <t>LNO Occultation Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>6SUBD CO2 CO #34</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 03:48:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.3hrs; &amp;Angle=59; </t>
-  </si>
-  <si>
-    <t>2025 JUL 28 05:46:41</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 07:44:30</t>
-  </si>
-  <si>
-    <t>All Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 09:42:24</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 11:40:18</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 13:38:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:EASTERN COPRATES; &amp;daysideMatch:COPRATES RISE; </t>
-  </si>
-  <si>
-    <t>2025 JUL 28 15:36:06</t>
-  </si>
-  <si>
-    <t>6SUBD HCL H20 #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 17:33:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;daysideMatch:PAVONIS MONS; </t>
-  </si>
-  <si>
-    <t>2025 JUL 28 19:31:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.2hrs; &amp;Angle=58; </t>
-  </si>
-  <si>
-    <t>6SUBD CO2 HCl #1</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 21:29:38</t>
-  </si>
-  <si>
-    <t>2025 JUL 28 23:27:33</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 01:25:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=57; </t>
-  </si>
-  <si>
-    <t>2025 JUL 29 03:23:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 05:21:17</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 07:19:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.1hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2025 JUL 29 09:16:58</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 11:14:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=56; </t>
-  </si>
-  <si>
-    <t>2025 JUL 29 13:12:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;ingressMatch:ELYSIUM CERBERUS PHLEGRA; </t>
-  </si>
-  <si>
-    <t>2025 JUL 29 15:10:42</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 17:08:35</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 19:06:25</t>
-  </si>
-  <si>
-    <t>2025 JUL 29 21:04:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=16.0hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>2025 JUL 29 23:02:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=55; </t>
-  </si>
-  <si>
-    <t>2025 JUL 30 01:00:06</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 02:58:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=54; </t>
-  </si>
-  <si>
-    <t>2025 JUL 30 04:55:56</t>
-  </si>
-  <si>
-    <t>CO Fullscan Fast #2</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 06:53:45</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 08:51:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.9hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>2025 JUL 30 10:49:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=53; </t>
-  </si>
-  <si>
-    <t>2025 JUL 30 12:47:26</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 14:45:20</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 16:43:14</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 18:41:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;LST=15.8hrs; &amp;Angle=52; </t>
-  </si>
-  <si>
-    <t>2025 JUL 30 20:38:55</t>
-  </si>
-  <si>
-    <t>2025 JUL 30 22:36:48</t>
-  </si>
-  <si>
-    <t>2025 JUL 31 00:34:45</t>
-  </si>
-  <si>
-    <t>2025 JUL 31 02:32:42</t>
-  </si>
-  <si>
-    <t>All Fullscan Slow #2</t>
-  </si>
-  <si>
     <t>2025 JUL 31 04:30:37</t>
   </si>
   <si>
@@ -1661,9 +1664,6 @@
   </si>
   <si>
     <t xml:space="preserve">&amp;daysideMatch:NILI FOSSAE; &amp;mroOverlap; </t>
-  </si>
-  <si>
-    <t>Nominal 3SUBD 01</t>
   </si>
   <si>
     <t>2025 JUL 31 08:26:18</t>
@@ -2374,10 +2374,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>6</v>
@@ -2386,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
@@ -2400,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" t="s">
         <v>42</v>
-      </c>
-      <c r="M12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2411,19 +2411,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -2432,10 +2432,10 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2446,10 +2446,10 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2457,19 +2457,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -2478,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2489,22 +2489,22 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2512,16 +2512,16 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
         <v>54</v>
-      </c>
-      <c r="M17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2529,19 +2529,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -2550,10 +2550,10 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2564,10 +2564,10 @@
         <v>8</v>
       </c>
       <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" t="s">
         <v>58</v>
-      </c>
-      <c r="M19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2575,19 +2575,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -2596,10 +2596,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2610,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2630,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -2642,10 +2642,10 @@
         <v>8</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2653,19 +2653,19 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -2674,10 +2674,10 @@
         <v>8</v>
       </c>
       <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
         <v>67</v>
-      </c>
-      <c r="M23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2688,10 +2688,10 @@
         <v>8</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2699,19 +2699,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>70</v>
       </c>
-      <c r="C25" t="s">
+      <c r="F25" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
       </c>
       <c r="G25" t="s">
         <v>6</v>
@@ -2720,10 +2720,10 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
         <v>72</v>
-      </c>
-      <c r="M25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2734,10 +2734,10 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
         <v>74</v>
-      </c>
-      <c r="M26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2745,19 +2745,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -2766,10 +2766,10 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" t="s">
         <v>76</v>
-      </c>
-      <c r="M27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2777,19 +2777,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>6</v>
@@ -2798,10 +2798,10 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="s">
         <v>79</v>
-      </c>
-      <c r="M28" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2812,10 +2812,10 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" t="s">
         <v>81</v>
-      </c>
-      <c r="M29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2823,19 +2823,19 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>6</v>
@@ -2844,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2858,10 +2858,10 @@
         <v>8</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2869,19 +2869,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
         <v>6</v>
@@ -2890,10 +2890,10 @@
         <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2901,19 +2901,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
         <v>6</v>
@@ -2922,10 +2922,10 @@
         <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2936,10 +2936,10 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2947,19 +2947,19 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>6</v>
@@ -2968,10 +2968,10 @@
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2982,10 +2982,10 @@
         <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2993,19 +2993,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
@@ -3014,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3025,19 +3025,19 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
         <v>6</v>
@@ -3046,10 +3046,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3057,16 +3057,16 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3074,19 +3074,19 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
         <v>6</v>
@@ -3095,10 +3095,10 @@
         <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3106,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -3118,10 +3118,10 @@
         <v>8</v>
       </c>
       <c r="L41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3129,19 +3129,19 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
         <v>6</v>
@@ -3150,10 +3150,10 @@
         <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3161,19 +3161,19 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
         <v>6</v>
@@ -3182,10 +3182,10 @@
         <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3193,19 +3193,19 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
         <v>6</v>
@@ -3214,10 +3214,10 @@
         <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3225,19 +3225,19 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
         <v>6</v>
@@ -3246,10 +3246,10 @@
         <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3257,22 +3257,22 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3280,22 +3280,22 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I47" t="s">
         <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M47" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3303,22 +3303,22 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" t="s">
         <v>118</v>
       </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" t="s">
-        <v>122</v>
-      </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3326,22 +3326,22 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I49" t="s">
         <v>8</v>
       </c>
       <c r="L49" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M49" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3349,22 +3349,22 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>121</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="s">
         <v>124</v>
       </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="M50" t="s">
         <v>125</v>
-      </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>128</v>
-      </c>
-      <c r="M50" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3375,10 +3375,10 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3386,22 +3386,22 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
         <v>8</v>
       </c>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3409,22 +3409,22 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
       </c>
       <c r="L53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3435,10 +3435,10 @@
         <v>8</v>
       </c>
       <c r="L54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3446,22 +3446,22 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I55" t="s">
         <v>8</v>
       </c>
       <c r="L55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3469,22 +3469,22 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
       </c>
       <c r="L56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3492,22 +3492,22 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I57" t="s">
         <v>8</v>
       </c>
       <c r="L57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3515,22 +3515,22 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I58" t="s">
         <v>8</v>
       </c>
       <c r="L58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3538,22 +3538,22 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I59" t="s">
         <v>8</v>
       </c>
       <c r="L59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3564,10 +3564,10 @@
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3578,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3592,10 +3592,10 @@
         <v>8</v>
       </c>
       <c r="L62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3609,10 +3609,10 @@
         <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3620,10 +3620,10 @@
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3637,10 +3637,10 @@
         <v>25</v>
       </c>
       <c r="L65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M65" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3651,10 +3651,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3668,10 +3668,10 @@
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3682,10 +3682,10 @@
         <v>8</v>
       </c>
       <c r="L68" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M68" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="L69" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3713,10 +3713,10 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3727,10 +3727,10 @@
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M71" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3741,10 +3741,10 @@
         <v>8</v>
       </c>
       <c r="L72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M72" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3758,10 +3758,10 @@
         <v>8</v>
       </c>
       <c r="L73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3772,10 +3772,10 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3786,10 +3786,10 @@
         <v>8</v>
       </c>
       <c r="L75" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3797,10 +3797,10 @@
         <v>14</v>
       </c>
       <c r="L76" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M76" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3814,7 +3814,7 @@
         <v>25</v>
       </c>
       <c r="L77" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s">
         <v>27</v>
@@ -3828,10 +3828,10 @@
         <v>8</v>
       </c>
       <c r="L78" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M78" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3845,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="L79" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M79" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3859,10 +3859,10 @@
         <v>8</v>
       </c>
       <c r="L80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M80" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3870,10 +3870,10 @@
         <v>14</v>
       </c>
       <c r="L81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M81" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3887,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="L82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M82" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3901,10 +3901,10 @@
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M83" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3915,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="L84" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3932,10 +3932,10 @@
         <v>8</v>
       </c>
       <c r="L85" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M85" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3943,10 +3943,10 @@
         <v>14</v>
       </c>
       <c r="L86" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3954,10 +3954,10 @@
         <v>14</v>
       </c>
       <c r="L87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3968,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="L88" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3982,10 +3982,10 @@
         <v>8</v>
       </c>
       <c r="L89" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M89" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3996,10 +3996,10 @@
         <v>8</v>
       </c>
       <c r="L90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -4013,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="L91" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M91" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4024,10 +4024,10 @@
         <v>14</v>
       </c>
       <c r="L92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -4041,7 +4041,7 @@
         <v>25</v>
       </c>
       <c r="L93" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s">
         <v>27</v>
@@ -4058,10 +4058,10 @@
         <v>8</v>
       </c>
       <c r="L94" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M94" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4072,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="L95" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M95" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4086,10 +4086,10 @@
         <v>8</v>
       </c>
       <c r="L96" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M96" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4103,10 +4103,10 @@
         <v>8</v>
       </c>
       <c r="L97" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M97" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4114,10 +4114,10 @@
         <v>14</v>
       </c>
       <c r="L98" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M98" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4128,7 +4128,7 @@
         <v>25</v>
       </c>
       <c r="L99" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M99" t="s">
         <v>27</v>
@@ -4142,10 +4142,10 @@
         <v>8</v>
       </c>
       <c r="L100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M100" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4170,10 +4170,10 @@
         <v>8</v>
       </c>
       <c r="L102" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M102" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4184,10 +4184,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M103" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4198,10 +4198,10 @@
         <v>8</v>
       </c>
       <c r="L104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M104" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4212,10 +4212,10 @@
         <v>8</v>
       </c>
       <c r="L105" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M105" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4226,10 +4226,10 @@
         <v>8</v>
       </c>
       <c r="L106" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4240,10 +4240,10 @@
         <v>8</v>
       </c>
       <c r="L107" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4254,10 +4254,10 @@
         <v>8</v>
       </c>
       <c r="L108" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4268,10 +4268,10 @@
         <v>8</v>
       </c>
       <c r="L109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4279,10 +4279,10 @@
         <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M110" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4296,7 +4296,7 @@
         <v>25</v>
       </c>
       <c r="L111" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M111" t="s">
         <v>27</v>
@@ -4310,10 +4310,10 @@
         <v>8</v>
       </c>
       <c r="L112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4324,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="L113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4338,10 +4338,10 @@
         <v>8</v>
       </c>
       <c r="L114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4352,10 +4352,10 @@
         <v>8</v>
       </c>
       <c r="L115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4363,16 +4363,16 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
       </c>
       <c r="L116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4383,10 +4383,10 @@
         <v>8</v>
       </c>
       <c r="L117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4397,10 +4397,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4411,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M119" t="s">
         <v>29</v>
@@ -4425,10 +4425,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M120" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4439,10 +4439,10 @@
         <v>8</v>
       </c>
       <c r="L121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4453,10 +4453,10 @@
         <v>8</v>
       </c>
       <c r="L122" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4464,10 +4464,10 @@
         <v>14</v>
       </c>
       <c r="L123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -4478,10 +4478,10 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -4492,10 +4492,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M125" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -4506,10 +4506,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -4520,10 +4520,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M127" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -4534,10 +4534,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M128" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -4548,10 +4548,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -4562,10 +4562,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -4576,10 +4576,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -4590,10 +4590,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -4604,10 +4604,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -4618,10 +4618,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -4632,10 +4632,10 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -4646,10 +4646,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M136" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -4660,10 +4660,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -4674,10 +4674,10 @@
         <v>8</v>
       </c>
       <c r="L138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -4688,10 +4688,10 @@
         <v>8</v>
       </c>
       <c r="L139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -4702,10 +4702,10 @@
         <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M140" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -4713,16 +4713,16 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="I141" t="s">
         <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -4733,10 +4733,10 @@
         <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -4747,10 +4747,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -4761,10 +4761,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -4775,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -4789,10 +4789,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -4803,10 +4803,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M147" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -4817,10 +4817,10 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -4831,10 +4831,10 @@
         <v>8</v>
       </c>
       <c r="L149" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M149" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -4845,10 +4845,10 @@
         <v>8</v>
       </c>
       <c r="L150" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M150" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -4859,10 +4859,10 @@
         <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M151" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -4873,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -4887,10 +4887,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M153" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -4898,10 +4898,10 @@
         <v>14</v>
       </c>
       <c r="L154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M154" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4915,7 +4915,7 @@
         <v>25</v>
       </c>
       <c r="L155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M155" t="s">
         <v>27</v>
@@ -4929,10 +4929,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -4943,10 +4943,10 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M157" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -4957,10 +4957,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M158" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -4968,16 +4968,16 @@
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I159" t="s">
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -4988,10 +4988,10 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M160" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -5002,10 +5002,10 @@
         <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -5016,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M162" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -5030,10 +5030,10 @@
         <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M163" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -5044,10 +5044,10 @@
         <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M164" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -5058,10 +5058,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -5072,10 +5072,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M166" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -5086,10 +5086,10 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M167" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -5100,10 +5100,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -5114,10 +5114,10 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -5128,10 +5128,10 @@
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -5142,10 +5142,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -5153,10 +5153,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M172" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -5164,10 +5164,10 @@
         <v>14</v>
       </c>
       <c r="L173" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M173" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -5178,10 +5178,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -5189,16 +5189,16 @@
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="I175" t="s">
         <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -5209,10 +5209,10 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -5223,10 +5223,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -5237,10 +5237,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M178" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -5251,10 +5251,10 @@
         <v>8</v>
       </c>
       <c r="L179" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M179" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -5265,10 +5265,10 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M180" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -5279,10 +5279,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -5293,10 +5293,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M182" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -5307,10 +5307,10 @@
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M183" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -5321,10 +5321,10 @@
         <v>8</v>
       </c>
       <c r="L184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M184" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -5335,10 +5335,10 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M185" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -5346,10 +5346,10 @@
         <v>14</v>
       </c>
       <c r="L186" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M186" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -5360,10 +5360,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M187" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -5374,10 +5374,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M188" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -5388,10 +5388,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M189" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -5402,10 +5402,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M190" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -5416,10 +5416,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M191" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -5427,10 +5427,10 @@
         <v>14</v>
       </c>
       <c r="L192" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M192" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -5441,10 +5441,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M193" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -5455,10 +5455,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M194" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -5469,10 +5469,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M195" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -5480,16 +5480,16 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="I196" t="s">
         <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M196" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -5500,10 +5500,10 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M197" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -5514,10 +5514,10 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M198" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -5528,10 +5528,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M199" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -5542,10 +5542,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -5556,10 +5556,10 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M201" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -5570,10 +5570,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M202" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -5584,10 +5584,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M203" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -5598,10 +5598,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M204" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -5609,10 +5609,10 @@
         <v>14</v>
       </c>
       <c r="L205" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M205" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -5623,10 +5623,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M206" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -5637,10 +5637,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M207" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M208" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -5665,10 +5665,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M209" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -5679,10 +5679,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M210" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -5690,16 +5690,16 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I211" t="s">
         <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -5710,10 +5710,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M212" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -5724,10 +5724,10 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M213" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -5738,10 +5738,10 @@
         <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M214" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -5752,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M215" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M216" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -5777,10 +5777,10 @@
         <v>14</v>
       </c>
       <c r="L217" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M217" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -5788,10 +5788,10 @@
         <v>14</v>
       </c>
       <c r="L218" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M218" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -5802,10 +5802,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M219" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -5816,10 +5816,10 @@
         <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M220" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -5830,10 +5830,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M221" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -5844,10 +5844,10 @@
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M222" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -5858,10 +5858,10 @@
         <v>8</v>
       </c>
       <c r="L223" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M223" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -5872,10 +5872,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M224" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -5886,10 +5886,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M225" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -5900,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M226" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -5914,10 +5914,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M227" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M228" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -5942,10 +5942,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M229" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -5956,10 +5956,10 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M230" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -5970,10 +5970,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M231" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -5984,10 +5984,10 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M232" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -5998,10 +5998,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M233" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -6012,10 +6012,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M234" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -6026,10 +6026,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M235" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -6037,16 +6037,16 @@
         <v>3</v>
       </c>
       <c r="H236" t="s">
-        <v>422</v>
+        <v>19</v>
       </c>
       <c r="I236" t="s">
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M236" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -6057,10 +6057,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M237" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -6071,10 +6071,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M238" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -6085,10 +6085,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M239" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -6099,10 +6099,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M240" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -6110,10 +6110,10 @@
         <v>14</v>
       </c>
       <c r="L241" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M241" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -6124,10 +6124,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M242" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -6138,10 +6138,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M243" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -6152,10 +6152,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M244" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -6166,10 +6166,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M245" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -6180,10 +6180,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M246" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -6194,10 +6194,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M247" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -6208,10 +6208,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M248" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -6219,22 +6219,22 @@
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C249" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D249" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I249" t="s">
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M249" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -6242,22 +6242,22 @@
         <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C250" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D250" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I250" t="s">
         <v>8</v>
       </c>
       <c r="L250" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M250" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -6265,22 +6265,22 @@
         <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C251" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D251" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I251" t="s">
         <v>8</v>
       </c>
       <c r="L251" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="M251" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -6288,22 +6288,22 @@
         <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C252" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D252" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I252" t="s">
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M252" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -6311,25 +6311,25 @@
         <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C253" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D253" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H253" t="s">
-        <v>449</v>
+        <v>19</v>
       </c>
       <c r="I253" t="s">
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M253" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -6340,10 +6340,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M254" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -6351,22 +6351,22 @@
         <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C255" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D255" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I255" t="s">
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M255" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -6374,22 +6374,22 @@
         <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C256" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D256" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I256" t="s">
         <v>8</v>
       </c>
       <c r="L256" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M256" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -6397,10 +6397,10 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M257" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -6408,10 +6408,10 @@
         <v>14</v>
       </c>
       <c r="L258" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M258" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -6422,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M259" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -6433,22 +6433,22 @@
         <v>5</v>
       </c>
       <c r="B260" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C260" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D260" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I260" t="s">
         <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M260" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -6456,22 +6456,22 @@
         <v>5</v>
       </c>
       <c r="B261" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="C261" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D261" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I261" t="s">
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M261" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -6479,22 +6479,22 @@
         <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C262" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D262" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I262" t="s">
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M262" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -6502,22 +6502,22 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
-        <v>464</v>
+        <v>49</v>
       </c>
       <c r="C263" t="s">
-        <v>464</v>
+        <v>49</v>
       </c>
       <c r="D263" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I263" t="s">
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M263" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -6525,19 +6525,19 @@
         <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C264" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D264" t="s">
         <v>3</v>
       </c>
       <c r="E264" t="s">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="F264" t="s">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="G264" t="s">
         <v>6</v>
@@ -6546,10 +6546,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M264" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -6557,19 +6557,19 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>464</v>
+        <v>30</v>
       </c>
       <c r="C265" t="s">
-        <v>464</v>
+        <v>30</v>
       </c>
       <c r="D265" t="s">
         <v>3</v>
       </c>
       <c r="E265" t="s">
-        <v>117</v>
+        <v>463</v>
       </c>
       <c r="F265" t="s">
-        <v>117</v>
+        <v>463</v>
       </c>
       <c r="G265" t="s">
         <v>6</v>
@@ -6578,10 +6578,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M265" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -6589,19 +6589,19 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D266" t="s">
         <v>3</v>
       </c>
       <c r="E266" t="s">
-        <v>86</v>
+        <v>465</v>
       </c>
       <c r="F266" t="s">
-        <v>86</v>
+        <v>465</v>
       </c>
       <c r="G266" t="s">
         <v>6</v>
@@ -6610,10 +6610,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M266" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -6621,19 +6621,19 @@
         <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C267" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D267" t="s">
         <v>3</v>
       </c>
       <c r="E267" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="F267" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="G267" t="s">
         <v>6</v>
@@ -6642,10 +6642,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M267" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -6653,19 +6653,19 @@
         <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="C268" t="s">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="D268" t="s">
         <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="F268" t="s">
-        <v>40</v>
+        <v>471</v>
       </c>
       <c r="G268" t="s">
         <v>6</v>
@@ -6674,10 +6674,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M268" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -6685,19 +6685,19 @@
         <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>31</v>
+        <v>474</v>
       </c>
       <c r="C269" t="s">
-        <v>31</v>
+        <v>474</v>
       </c>
       <c r="D269" t="s">
         <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
       <c r="F269" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
       <c r="G269" t="s">
         <v>6</v>
@@ -6706,10 +6706,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M269" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -6717,16 +6717,16 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I270" t="s">
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M270" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -6737,10 +6737,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M271" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -6748,10 +6748,10 @@
         <v>1</v>
       </c>
       <c r="E272" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="F272" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="G272" t="s">
         <v>6</v>
@@ -6760,10 +6760,10 @@
         <v>8</v>
       </c>
       <c r="L272" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M272" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -6771,19 +6771,19 @@
         <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C273" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D273" t="s">
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="F273" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="G273" t="s">
         <v>6</v>
@@ -6792,10 +6792,10 @@
         <v>8</v>
       </c>
       <c r="L273" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M273" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -6806,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M274" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -6817,19 +6817,19 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C275" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D275" t="s">
         <v>3</v>
       </c>
       <c r="E275" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
       <c r="F275" t="s">
-        <v>89</v>
+        <v>468</v>
       </c>
       <c r="G275" t="s">
         <v>6</v>
@@ -6838,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M275" t="s">
         <v>29</v>
@@ -6852,10 +6852,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M276" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -6863,19 +6863,19 @@
         <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="C277" t="s">
-        <v>487</v>
+        <v>70</v>
       </c>
       <c r="D277" t="s">
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>488</v>
+        <v>23</v>
       </c>
       <c r="F277" t="s">
-        <v>488</v>
+        <v>23</v>
       </c>
       <c r="G277" t="s">
         <v>6</v>
@@ -6884,10 +6884,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M277" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -6895,19 +6895,19 @@
         <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>51</v>
+        <v>488</v>
       </c>
       <c r="C278" t="s">
-        <v>51</v>
+        <v>488</v>
       </c>
       <c r="D278" t="s">
         <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>23</v>
+        <v>489</v>
       </c>
       <c r="F278" t="s">
-        <v>23</v>
+        <v>489</v>
       </c>
       <c r="G278" t="s">
         <v>6</v>
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M278" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -6930,10 +6930,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M279" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -6941,19 +6941,19 @@
         <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C280" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D280" t="s">
         <v>3</v>
       </c>
       <c r="E280" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F280" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G280" t="s">
         <v>6</v>
@@ -6962,10 +6962,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M280" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -6976,10 +6976,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M281" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -6987,10 +6987,10 @@
         <v>14</v>
       </c>
       <c r="L282" t="s">
+        <v>495</v>
+      </c>
+      <c r="M282" t="s">
         <v>496</v>
-      </c>
-      <c r="M282" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -7001,7 +7001,7 @@
         <v>25</v>
       </c>
       <c r="L283" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M283" t="s">
         <v>27</v>
@@ -7012,10 +7012,10 @@
         <v>1</v>
       </c>
       <c r="E284" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F284" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G284" t="s">
         <v>6</v>
@@ -7024,10 +7024,10 @@
         <v>8</v>
       </c>
       <c r="L284" t="s">
+        <v>499</v>
+      </c>
+      <c r="M284" t="s">
         <v>500</v>
-      </c>
-      <c r="M284" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -7041,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>501</v>
+      </c>
+      <c r="M285" t="s">
         <v>502</v>
-      </c>
-      <c r="M285" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -7052,28 +7052,28 @@
         <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C286" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D286" t="s">
         <v>3</v>
       </c>
       <c r="E286" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F286" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G286" t="s">
         <v>6</v>
       </c>
       <c r="L286" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M286" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -7084,7 +7084,7 @@
         <v>25</v>
       </c>
       <c r="L287" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M287" t="s">
         <v>27</v>
@@ -7095,19 +7095,19 @@
         <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C288" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D288" t="s">
         <v>3</v>
       </c>
       <c r="E288" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F288" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G288" t="s">
         <v>6</v>
@@ -7116,10 +7116,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
+        <v>506</v>
+      </c>
+      <c r="M288" t="s">
         <v>507</v>
-      </c>
-      <c r="M288" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -7133,10 +7133,10 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M289" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -7144,19 +7144,19 @@
         <v>1</v>
       </c>
       <c r="B290" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C290" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D290" t="s">
         <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F290" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G290" t="s">
         <v>6</v>
@@ -7165,10 +7165,10 @@
         <v>8</v>
       </c>
       <c r="L290" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M290" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -7182,10 +7182,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
+        <v>510</v>
+      </c>
+      <c r="M291" t="s">
         <v>511</v>
-      </c>
-      <c r="M291" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -7193,19 +7193,19 @@
         <v>1</v>
       </c>
       <c r="B292" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C292" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D292" t="s">
         <v>3</v>
       </c>
       <c r="E292" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F292" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G292" t="s">
         <v>6</v>
@@ -7214,10 +7214,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M292" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -7228,10 +7228,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
+        <v>513</v>
+      </c>
+      <c r="M293" t="s">
         <v>514</v>
-      </c>
-      <c r="M293" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -7239,19 +7239,19 @@
         <v>1</v>
       </c>
       <c r="B294" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C294" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D294" t="s">
         <v>3</v>
       </c>
       <c r="E294" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F294" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G294" t="s">
         <v>6</v>
@@ -7260,10 +7260,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
+        <v>515</v>
+      </c>
+      <c r="M294" t="s">
         <v>516</v>
-      </c>
-      <c r="M294" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -7271,19 +7271,19 @@
         <v>1</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
       <c r="C295" t="s">
-        <v>23</v>
+        <v>517</v>
       </c>
       <c r="D295" t="s">
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>473</v>
+        <v>70</v>
       </c>
       <c r="F295" t="s">
-        <v>473</v>
+        <v>70</v>
       </c>
       <c r="G295" t="s">
         <v>6</v>
@@ -7295,7 +7295,7 @@
         <v>518</v>
       </c>
       <c r="M295" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -7309,7 +7309,7 @@
         <v>519</v>
       </c>
       <c r="M296" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -7317,19 +7317,19 @@
         <v>1</v>
       </c>
       <c r="B297" t="s">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="C297" t="s">
-        <v>97</v>
+        <v>463</v>
       </c>
       <c r="D297" t="s">
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F297" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
         <v>6</v>
@@ -7341,7 +7341,7 @@
         <v>520</v>
       </c>
       <c r="M297" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -7377,10 +7377,10 @@
         <v>1</v>
       </c>
       <c r="B300" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C300" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D300" t="s">
         <v>3</v>
@@ -7401,7 +7401,7 @@
         <v>525</v>
       </c>
       <c r="M300" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="301" spans="1:13">
@@ -7409,19 +7409,19 @@
         <v>1</v>
       </c>
       <c r="B301" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C301" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D301" t="s">
         <v>3</v>
       </c>
       <c r="E301" t="s">
-        <v>39</v>
+        <v>488</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>488</v>
       </c>
       <c r="G301" t="s">
         <v>6</v>
@@ -7455,19 +7455,19 @@
         <v>1</v>
       </c>
       <c r="B303" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C303" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
         <v>3</v>
       </c>
       <c r="E303" t="s">
-        <v>529</v>
+        <v>97</v>
       </c>
       <c r="F303" t="s">
-        <v>529</v>
+        <v>97</v>
       </c>
       <c r="G303" t="s">
         <v>6</v>
@@ -7476,7 +7476,7 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M303" t="s">
         <v>527</v>
@@ -7490,10 +7490,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
+        <v>530</v>
+      </c>
+      <c r="M304" t="s">
         <v>531</v>
-      </c>
-      <c r="M304" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -7504,10 +7504,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
+        <v>532</v>
+      </c>
+      <c r="M305" t="s">
         <v>533</v>
-      </c>
-      <c r="M305" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="306" spans="1:13">
@@ -7515,19 +7515,19 @@
         <v>1</v>
       </c>
       <c r="B306" t="s">
-        <v>488</v>
+        <v>15</v>
       </c>
       <c r="C306" t="s">
-        <v>488</v>
+        <v>15</v>
       </c>
       <c r="D306" t="s">
         <v>3</v>
       </c>
       <c r="E306" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="F306" t="s">
-        <v>78</v>
+        <v>517</v>
       </c>
       <c r="G306" t="s">
         <v>6</v>
@@ -7536,10 +7536,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M306" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="307" spans="1:13">
@@ -7547,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="F307" t="s">
-        <v>16</v>
+        <v>535</v>
       </c>
       <c r="G307" t="s">
         <v>6</v>
@@ -7562,7 +7562,7 @@
         <v>536</v>
       </c>
       <c r="M307" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -7576,7 +7576,7 @@
         <v>537</v>
       </c>
       <c r="M308" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="309" spans="1:13">
@@ -7584,10 +7584,10 @@
         <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F309" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G309" t="s">
         <v>6</v>
@@ -7607,16 +7607,16 @@
         <v>3</v>
       </c>
       <c r="H310" t="s">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="I310" t="s">
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M310" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:13">
@@ -7627,10 +7627,10 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M311" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="312" spans="1:13">
@@ -7638,19 +7638,19 @@
         <v>1</v>
       </c>
       <c r="B312" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C312" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D312" t="s">
         <v>3</v>
       </c>
       <c r="E312" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="F312" t="s">
-        <v>51</v>
+        <v>471</v>
       </c>
       <c r="G312" t="s">
         <v>6</v>
@@ -7659,10 +7659,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M312" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="313" spans="1:13">
@@ -7673,10 +7673,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M313" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="314" spans="1:13">
@@ -7684,19 +7684,19 @@
         <v>1</v>
       </c>
       <c r="B314" t="s">
-        <v>31</v>
+        <v>461</v>
       </c>
       <c r="C314" t="s">
-        <v>31</v>
+        <v>461</v>
       </c>
       <c r="D314" t="s">
         <v>3</v>
       </c>
       <c r="E314" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F314" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G314" t="s">
         <v>6</v>
@@ -7705,10 +7705,10 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M314" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="315" spans="1:13">
@@ -7716,19 +7716,19 @@
         <v>1</v>
       </c>
       <c r="B315" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="C315" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="D315" t="s">
         <v>3</v>
       </c>
       <c r="E315" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F315" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G315" t="s">
         <v>6</v>
@@ -7737,10 +7737,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M315" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="316" spans="1:13">
@@ -7748,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="H316" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="I316" t="s">
         <v>8</v>
@@ -7757,7 +7757,7 @@
         <v>550</v>
       </c>
       <c r="M316" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="317" spans="1:13">
@@ -7774,7 +7774,7 @@
         <v>552</v>
       </c>
       <c r="M317" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="318" spans="1:13">
@@ -7782,19 +7782,19 @@
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C318" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D318" t="s">
         <v>3</v>
       </c>
       <c r="E318" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F318" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G318" t="s">
         <v>6</v>
@@ -7828,19 +7828,19 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C320" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D320" t="s">
         <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="F320" t="s">
-        <v>464</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
         <v>6</v>
@@ -7874,19 +7874,19 @@
         <v>1</v>
       </c>
       <c r="B322" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="C322" t="s">
-        <v>30</v>
+        <v>465</v>
       </c>
       <c r="D322" t="s">
         <v>3</v>
       </c>
       <c r="E322" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="F322" t="s">
-        <v>22</v>
+        <v>483</v>
       </c>
       <c r="G322" t="s">
         <v>6</v>
@@ -7906,7 +7906,7 @@
         <v>560</v>
       </c>
       <c r="M323" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="324" spans="1:13">
@@ -7914,19 +7914,19 @@
         <v>1</v>
       </c>
       <c r="B324" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C324" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D324" t="s">
         <v>3</v>
       </c>
       <c r="E324" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F324" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G324" t="s">
         <v>6</v>
@@ -7960,10 +7960,10 @@
         <v>28</v>
       </c>
       <c r="B326" t="s">
-        <v>35</v>
+        <v>517</v>
       </c>
       <c r="C326" t="s">
-        <v>35</v>
+        <v>517</v>
       </c>
       <c r="D326" t="s">
         <v>3</v>
@@ -7989,7 +7989,7 @@
         <v>567</v>
       </c>
       <c r="M327" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="328" spans="1:13">
@@ -8011,19 +8011,19 @@
         <v>1</v>
       </c>
       <c r="B329" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C329" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D329" t="s">
         <v>3</v>
       </c>
       <c r="E329" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F329" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G329" t="s">
         <v>6</v>
@@ -8065,10 +8065,10 @@
         <v>1</v>
       </c>
       <c r="E332" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F332" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G332" t="s">
         <v>6</v>
@@ -8080,7 +8080,7 @@
         <v>575</v>
       </c>
       <c r="M332" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="333" spans="1:13">
@@ -8088,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="H333" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="I333" t="s">
         <v>8</v>
@@ -8097,7 +8097,7 @@
         <v>576</v>
       </c>
       <c r="M333" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:13">
@@ -8128,19 +8128,19 @@
         <v>1</v>
       </c>
       <c r="B335" t="s">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="C335" t="s">
-        <v>83</v>
+        <v>535</v>
       </c>
       <c r="D335" t="s">
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="F335" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="G335" t="s">
         <v>6</v>
@@ -8152,7 +8152,7 @@
         <v>579</v>
       </c>
       <c r="M335" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="336" spans="1:13">
@@ -8174,7 +8174,7 @@
         <v>3</v>
       </c>
       <c r="H337" t="s">
-        <v>103</v>
+        <v>540</v>
       </c>
       <c r="I337" t="s">
         <v>8</v>
@@ -8183,7 +8183,7 @@
         <v>582</v>
       </c>
       <c r="M337" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="338" spans="1:13">
@@ -8191,19 +8191,19 @@
         <v>1</v>
       </c>
       <c r="B338" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C338" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D338" t="s">
         <v>3</v>
       </c>
       <c r="E338" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F338" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="G338" t="s">
         <v>6</v>
@@ -8265,19 +8265,19 @@
         <v>1</v>
       </c>
       <c r="B342" t="s">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="C342" t="s">
-        <v>16</v>
+        <v>517</v>
       </c>
       <c r="D342" t="s">
         <v>3</v>
       </c>
       <c r="E342" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F342" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G342" t="s">
         <v>6</v>
